--- a/medicine/Handicap/Le_Regard_des_autres/Le_Regard_des_autres.xlsx
+++ b/medicine/Handicap/Le_Regard_des_autres/Le_Regard_des_autres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Regard des autres est film français réalisé par Fernando Solanas et sorti en 1980. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rencontre de vingt-quatre personnes handicapées, la plupart non handicapées de naissance.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Source : Imdb
 Titre : Le Regard des autres
@@ -582,10 +598,12 @@
           <t>Sélections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Festival de Cannes 1980 (« Perspectives du cinéma français »)[1],[2]
-Festival de Mannheim 1980[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1980 (« Perspectives du cinéma français »),
+Festival de Mannheim 1980</t>
         </is>
       </c>
     </row>
@@ -613,7 +631,9 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Louis Marcorelles (Le Monde), « Le Regard des autres est bien l'œuvre du même cinéaste progressiste, au sens le plus fort, le plus généreux, le plus pénétrant. Dur par moments, aux limites de l'insupportable dans ce qu'il nous demande d'affronter, Le Regard des autres interroge d'abord la société, et le simple spectateur, avec une franchise gênante ».
 </t>
